--- a/output/VINCI_24572582000149.xlsx
+++ b/output/VINCI_24572582000149.xlsx
@@ -966,10 +966,10 @@
         <v>44165</v>
       </c>
       <c r="B53">
-        <v>0.4345980359999999</v>
+        <v>0.4370844779999998</v>
       </c>
       <c r="C53">
-        <v>-0.002376657628538892</v>
+        <v>-0.0006475791574926948</v>
       </c>
     </row>
   </sheetData>

--- a/output/VINCI_24572582000149.xlsx
+++ b/output/VINCI_24572582000149.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>VINCI ATLAS FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,590 +383,434 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42613</v>
       </c>
       <c r="B2">
-        <v>0.01078676499999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42643</v>
       </c>
       <c r="B3">
-        <v>0.02573274900000011</v>
-      </c>
-      <c r="C3">
         <v>0.01478648565407381</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42674</v>
       </c>
       <c r="B4">
-        <v>0.03366084699999994</v>
-      </c>
-      <c r="C4">
         <v>0.007729204325131578</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>42704</v>
       </c>
       <c r="B5">
-        <v>0.03628205399999995</v>
-      </c>
-      <c r="C5">
         <v>0.002535848201668411</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>42735</v>
       </c>
       <c r="B6">
-        <v>0.06024178000000013</v>
-      </c>
-      <c r="C6">
         <v>0.02312085392921426</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>42766</v>
       </c>
       <c r="B7">
-        <v>0.07127107599999993</v>
-      </c>
-      <c r="C7">
         <v>0.01040262344688947</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>42794</v>
       </c>
       <c r="B8">
-        <v>0.07278263699999998</v>
-      </c>
-      <c r="C8">
         <v>0.001410997677305126</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>42825</v>
       </c>
       <c r="B9">
-        <v>0.07524732799999989</v>
-      </c>
-      <c r="C9">
         <v>0.002297474730661442</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>42855</v>
       </c>
       <c r="B10">
-        <v>0.07398173600000013</v>
-      </c>
-      <c r="C10">
         <v>-0.001177024082778977</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>42886</v>
       </c>
       <c r="B11">
-        <v>0.07108889399999985</v>
-      </c>
-      <c r="C11">
         <v>-0.002693567220960924</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>42916</v>
       </c>
       <c r="B12">
-        <v>0.08385831499999985</v>
-      </c>
-      <c r="C12">
         <v>0.01192190589551578</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>42947</v>
       </c>
       <c r="B13">
-        <v>0.1385600440000001</v>
-      </c>
-      <c r="C13">
         <v>0.0504694462762878</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>42978</v>
       </c>
       <c r="B14">
-        <v>0.1673388389999999</v>
-      </c>
-      <c r="C14">
         <v>0.02527648423256967</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43008</v>
       </c>
       <c r="B15">
-        <v>0.207705797</v>
-      </c>
-      <c r="C15">
         <v>0.03458032633830666</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43039</v>
       </c>
       <c r="B16">
-        <v>0.187362909</v>
-      </c>
-      <c r="C16">
         <v>-0.0168442414125467</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43069</v>
       </c>
       <c r="B17">
-        <v>0.185367901</v>
-      </c>
-      <c r="C17">
         <v>-0.001680200707701252</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43100</v>
       </c>
       <c r="B18">
-        <v>0.206894847</v>
-      </c>
-      <c r="C18">
         <v>0.01816056093794982</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43131</v>
       </c>
       <c r="B19">
-        <v>0.230526161</v>
-      </c>
-      <c r="C19">
         <v>0.01958025925683637</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43159</v>
       </c>
       <c r="B20">
-        <v>0.2571777160000002</v>
-      </c>
-      <c r="C20">
         <v>0.02165866589812393</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43190</v>
       </c>
       <c r="B21">
-        <v>0.2727736140000001</v>
-      </c>
-      <c r="C21">
         <v>0.0124054839673915</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43220</v>
       </c>
       <c r="B22">
-        <v>0.27262271</v>
-      </c>
-      <c r="C22">
         <v>-0.0001185631115699914</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43251</v>
       </c>
       <c r="B23">
-        <v>0.213068721</v>
-      </c>
-      <c r="C23">
         <v>-0.04679626454253683</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43281</v>
       </c>
       <c r="B24">
-        <v>0.223834479</v>
-      </c>
-      <c r="C24">
         <v>0.008874812954640543</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43312</v>
       </c>
       <c r="B25">
-        <v>0.2027589380000001</v>
-      </c>
-      <c r="C25">
         <v>-0.01722090802444198</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43343</v>
       </c>
       <c r="B26">
-        <v>0.1870004750000001</v>
-      </c>
-      <c r="C26">
         <v>-0.01310192965699675</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43373</v>
       </c>
       <c r="B27">
-        <v>0.172971352</v>
-      </c>
-      <c r="C27">
         <v>-0.01181896999662113</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43404</v>
       </c>
       <c r="B28">
-        <v>0.2139673419999999</v>
-      </c>
-      <c r="C28">
         <v>0.03495054668649722</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43434</v>
       </c>
       <c r="B29">
-        <v>0.1985174270000001</v>
-      </c>
-      <c r="C29">
         <v>-0.01272679623699446</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43465</v>
       </c>
       <c r="B30">
-        <v>0.2172915959999999</v>
-      </c>
-      <c r="C30">
         <v>0.0156644939631736</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43496</v>
       </c>
       <c r="B31">
-        <v>0.2488574560000001</v>
-      </c>
-      <c r="C31">
         <v>0.02593122313809193</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43524</v>
       </c>
       <c r="B32">
-        <v>0.2239628810000001</v>
-      </c>
-      <c r="C32">
         <v>-0.01993388026823772</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43555</v>
       </c>
       <c r="B33">
-        <v>0.2225515600000001</v>
-      </c>
-      <c r="C33">
         <v>-0.001153075000809523</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43585</v>
       </c>
       <c r="B34">
-        <v>0.2267983789999999</v>
-      </c>
-      <c r="C34">
         <v>0.003473734064843637</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43616</v>
       </c>
       <c r="B35">
-        <v>0.240147256</v>
-      </c>
-      <c r="C35">
         <v>0.0108810683389402</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43646</v>
       </c>
       <c r="B36">
-        <v>0.268909402</v>
-      </c>
-      <c r="C36">
         <v>0.02319252480771539</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43677</v>
       </c>
       <c r="B37">
-        <v>0.2911615409999999</v>
-      </c>
-      <c r="C37">
         <v>0.01753642849909309</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>43708</v>
       </c>
       <c r="B38">
-        <v>0.292483684</v>
-      </c>
-      <c r="C38">
         <v>0.001023995029294511</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>43738</v>
       </c>
       <c r="B39">
-        <v>0.307384007</v>
-      </c>
-      <c r="C39">
         <v>0.01152844185536339</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>43769</v>
       </c>
       <c r="B40">
-        <v>0.332757513</v>
-      </c>
-      <c r="C40">
         <v>0.01940784487506741</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>43799</v>
       </c>
       <c r="B41">
-        <v>0.3423139040000001</v>
-      </c>
-      <c r="C41">
         <v>0.007170389892223517</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>43830</v>
       </c>
       <c r="B42">
-        <v>0.3818183680000002</v>
-      </c>
-      <c r="C42">
         <v>0.02943012352198671</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>43861</v>
       </c>
       <c r="B43">
-        <v>0.426148821</v>
-      </c>
-      <c r="C43">
         <v>0.03208124455905326</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>43890</v>
       </c>
       <c r="B44">
-        <v>0.422545038</v>
-      </c>
-      <c r="C44">
         <v>-0.002526933337485104</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>43921</v>
       </c>
       <c r="B45">
-        <v>0.4187235419999999</v>
-      </c>
-      <c r="C45">
         <v>-0.0026863796209734</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>43951</v>
       </c>
       <c r="B46">
-        <v>0.425860567</v>
-      </c>
-      <c r="C46">
         <v>0.005030596017275402</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>43982</v>
       </c>
       <c r="B47">
-        <v>0.4375217950000001</v>
-      </c>
-      <c r="C47">
         <v>0.008178378917186313</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>44012</v>
       </c>
       <c r="B48">
-        <v>0.4592017659999998</v>
-      </c>
-      <c r="C48">
         <v>0.01508149029489991</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>44043</v>
       </c>
       <c r="B49">
-        <v>0.4831028509999999</v>
-      </c>
-      <c r="C49">
         <v>0.01637956145401209</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>44074</v>
       </c>
       <c r="B50">
-        <v>0.4801648900000002</v>
-      </c>
-      <c r="C50">
         <v>-0.001980955668731132</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>44104</v>
       </c>
       <c r="B51">
-        <v>0.4497575620000001</v>
-      </c>
-      <c r="C51">
         <v>-0.02054320312921365</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>44135</v>
       </c>
       <c r="B52">
-        <v>0.4380157070000001</v>
-      </c>
-      <c r="C52">
         <v>-0.008099185207078086</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>44165</v>
       </c>
       <c r="B53">
-        <v>0.4370844779999998</v>
-      </c>
-      <c r="C53">
-        <v>-0.0006475791574926948</v>
+        <v>-0.001854308674807958</v>
       </c>
     </row>
   </sheetData>
